--- a/evaluation/results/autoencoder/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,34 +500,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5945692883895131</v>
+        <v>0.5589887640449438</v>
       </c>
       <c r="C2">
-        <v>0.5523316062176166</v>
+        <v>0.5314057826520439</v>
       </c>
       <c r="D2">
         <v>0.99812734082397</v>
       </c>
       <c r="E2">
-        <v>0.7111407605070047</v>
+        <v>0.69355888093689</v>
       </c>
       <c r="F2">
-        <v>0.8594001934859723</v>
+        <v>0.8489964956992673</v>
       </c>
       <c r="G2">
-        <v>0.968075445337059</v>
+        <v>0.9655124364244408</v>
       </c>
       <c r="H2">
-        <v>0.7957013003408659</v>
+        <v>0.7962764241327553</v>
       </c>
       <c r="I2">
         <v>533</v>
       </c>
       <c r="J2">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="K2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9902912621359223</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="C2">
-        <v>0.1910112359550562</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="D2">
-        <v>0.3202511773940345</v>
+        <v>0.2136894824707846</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.5523316062176166</v>
+        <v>0.5314057826520439</v>
       </c>
       <c r="C3">
         <v>0.99812734082397</v>
       </c>
       <c r="D3">
-        <v>0.7111407605070047</v>
+        <v>0.69355888093689</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5945692883895131</v>
+        <v>0.5589887640449438</v>
       </c>
       <c r="C4">
-        <v>0.5945692883895131</v>
+        <v>0.5589887640449438</v>
       </c>
       <c r="D4">
-        <v>0.5945692883895131</v>
+        <v>0.5589887640449438</v>
       </c>
       <c r="E4">
-        <v>0.5945692883895131</v>
+        <v>0.5589887640449438</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7713114341767695</v>
+        <v>0.7580105836337143</v>
       </c>
       <c r="C5">
-        <v>0.5945692883895131</v>
+        <v>0.5589887640449438</v>
       </c>
       <c r="D5">
-        <v>0.5156959689505196</v>
+        <v>0.4536241817038373</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7713114341767694</v>
+        <v>0.7580105836337143</v>
       </c>
       <c r="C6">
-        <v>0.5945692883895131</v>
+        <v>0.5589887640449438</v>
       </c>
       <c r="D6">
-        <v>0.5156959689505196</v>
+        <v>0.4536241817038373</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>432</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:3">
